--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y406"/>
+  <dimension ref="A1:Y407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24196,7 +24196,7 @@
       </c>
       <c r="R405" s="2" t="inlineStr"/>
     </row>
-    <row r="406">
+    <row r="406" ht="15" customHeight="1">
       <c r="A406" t="inlineStr">
         <is>
           <t>A 37323-2023</t>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24252,6 +24252,63 @@
         <v>0</v>
       </c>
       <c r="R406" s="2" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>A 41441-2023</t>
+        </is>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C407" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N407" t="n">
+        <v>0</v>
+      </c>
+      <c r="O407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R407" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,27 +634,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 31390-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 31390-2020.xlsx", "A 31390-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 31390-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 31390-2020.png", "A 31390-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 31390-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 31390-2020.docx", "A 31390-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 31390-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 31390-2020.docx", "A 31390-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 31390-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 31390-2020.docx", "A 31390-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 31390-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 31390-2020.docx", "A 31390-2020")</f>
         <v/>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,27 +721,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 43704-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 43704-2021.xlsx", "A 43704-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 43704-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 43704-2021.png", "A 43704-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 43704-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 43704-2021.docx", "A 43704-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 43704-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 43704-2021.docx", "A 43704-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 43704-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 43704-2021.docx", "A 43704-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 43704-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 43704-2021.docx", "A 43704-2021")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -813,27 +813,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 14098-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 14098-2022.xlsx", "A 14098-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 14098-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 14098-2022.png", "A 14098-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 14098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 14098-2022.docx", "A 14098-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 14098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 14098-2022.docx", "A 14098-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 14098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 14098-2022.docx", "A 14098-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 14098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 14098-2022.docx", "A 14098-2022")</f>
         <v/>
       </c>
     </row>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,27 +900,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 60599-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 60599-2022.xlsx", "A 60599-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 60599-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 60599-2022.png", "A 60599-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 60599-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 60599-2022.docx", "A 60599-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 60599-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 60599-2022.docx", "A 60599-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 60599-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 60599-2022.docx", "A 60599-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 60599-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 60599-2022.docx", "A 60599-2022")</f>
         <v/>
       </c>
     </row>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,27 +985,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 2055-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 2055-2019.xlsx", "A 2055-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 2055-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 2055-2019.png", "A 2055-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 2055-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 2055-2019.docx", "A 2055-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 2055-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 2055-2019.docx", "A 2055-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 2055-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 2055-2019.docx", "A 2055-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 2055-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 2055-2019.docx", "A 2055-2019")</f>
         <v/>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1070,27 +1070,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 35997-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 35997-2019.xlsx", "A 35997-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 35997-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 35997-2019.png", "A 35997-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 35997-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 35997-2019.docx", "A 35997-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 35997-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 35997-2019.docx", "A 35997-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 35997-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 35997-2019.docx", "A 35997-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 35997-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 35997-2019.docx", "A 35997-2019")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,27 +1160,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 39788-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 39788-2019.xlsx", "A 39788-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 39788-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 39788-2019.png", "A 39788-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 39788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 39788-2019.docx", "A 39788-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 39788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 39788-2019.docx", "A 39788-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 39788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 39788-2019.docx", "A 39788-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 39788-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 39788-2019.docx", "A 39788-2019")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,27 +1245,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 24223-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 24223-2021.xlsx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 24223-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 24223-2021.png", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 24223-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 24223-2021.docx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 24223-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 24223-2021.docx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 24223-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 24223-2021.docx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 24223-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 24223-2021.docx", "A 24223-2021")</f>
         <v/>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1335,27 +1335,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 24301-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 24301-2021.xlsx", "A 24301-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 24301-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 24301-2021.png", "A 24301-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 24301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 24301-2021.docx", "A 24301-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 24301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 24301-2021.docx", "A 24301-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 24301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 24301-2021.docx", "A 24301-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 24301-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 24301-2021.docx", "A 24301-2021")</f>
         <v/>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,27 +1420,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 66246-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 66246-2021.xlsx", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 66246-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 66246-2021.png", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 66246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 66246-2021.docx", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 66246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 66246-2021.docx", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 66246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 66246-2021.docx", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 66246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 66246-2021.docx", "A 66246-2021")</f>
         <v/>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1505,27 +1505,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 66243-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 66243-2021.xlsx", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 66243-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 66243-2021.png", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 66243-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 66243-2021.docx", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 66243-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 66243-2021.docx", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 66243-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 66243-2021.docx", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 66243-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 66243-2021.docx", "A 66243-2021")</f>
         <v/>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1590,27 +1590,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 7767-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 7767-2022.xlsx", "A 7767-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 7767-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 7767-2022.png", "A 7767-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 7767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 7767-2022.docx", "A 7767-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 7767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 7767-2022.docx", "A 7767-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 7767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 7767-2022.docx", "A 7767-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 7767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 7767-2022.docx", "A 7767-2022")</f>
         <v/>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1675,27 +1675,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 32279-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/artfynd/A 32279-2023.xlsx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 32279-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/kartor/A 32279-2023.png", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 32279-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomål/A 32279-2023.docx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 32279-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/klagomålsmail/A 32279-2023.docx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 32279-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsyn/A 32279-2023.docx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 32279-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VINGAKER/tillsynsmail/A 32279-2023.docx", "A 32279-2023")</f>
         <v/>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y407"/>
+  <dimension ref="A1:Y410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="R406" s="2" t="inlineStr"/>
     </row>
-    <row r="407">
+    <row r="407" ht="15" customHeight="1">
       <c r="A407" t="inlineStr">
         <is>
           <t>A 41441-2023</t>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24309,6 +24309,177 @@
         <v>0</v>
       </c>
       <c r="R407" s="2" t="inlineStr"/>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>A 45881-2023</t>
+        </is>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C408" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0</v>
+      </c>
+      <c r="O408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R408" s="2" t="inlineStr"/>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>A 46159-2023</t>
+        </is>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C409" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G409" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R409" s="2" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>A 46052-2023</t>
+        </is>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C410" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G410" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R410" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45195</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45196</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45196</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45195</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45196</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45196</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45195</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45196</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45196</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y410"/>
+  <dimension ref="A1:Y411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44012</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44433</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44911</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>43462</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43656</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43692</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44336</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44337</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45109</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>43335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43335</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>43335</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>43336</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43340</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>43343</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43353</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43385</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43404</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         <v>43404</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43416</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         <v>43418</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2792,7 +2792,7 @@
         <v>43420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>43420</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         <v>43420</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43420</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>43432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>43438</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43444</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>43447</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>43462</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43473</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43489</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43503</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>43518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
         <v>43523</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>43525</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>43532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>43532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         <v>43532</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43538</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43545</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43549</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43559</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43565</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43573</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43580</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43580</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43580</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43580</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43606</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43608</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43608</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43608</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43613</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43626</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43640</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43640</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43640</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43656</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43665</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43670</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>43676</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>43679</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43691</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43692</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43700</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43705</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43716</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43724</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43724</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43724</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43731</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43731</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43731</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43731</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43732</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43733</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>43735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43739</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43739</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43740</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43740</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43740</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43740</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43745</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43747</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43754</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43759</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43759</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43766</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43767</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43776</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43776</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43780</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43780</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43794</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43794</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43812</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43817</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43846</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43866</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43866</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>43866</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43868</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>43871</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43871</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43872</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43880</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43881</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43886</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43886</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43893</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43899</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43914</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43948</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43955</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43957</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43957</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43957</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43962</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43986</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43987</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43998</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>43998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43998</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43998</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43999</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44012</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44012</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44035</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44042</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44048</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44054</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44064</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44070</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44082</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44082</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44088</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44089</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44089</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44089</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44089</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44094</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44094</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>44113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>44113</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>44117</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44124</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44124</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44124</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44127</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>44133</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44139</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44144</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44145</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44160</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44162</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44165</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44183</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44183</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44187</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44191</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44194</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44195</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>44228</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>44228</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>44237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>44244</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44245</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44263</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44277</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44281</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44281</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44281</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44295</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44307</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44307</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44320</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44323</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44358</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44368</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44387</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44389</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44389</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44389</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44389</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44404</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44412</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44412</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44418</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44418</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44425</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44425</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>44434</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44441</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44446</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44452</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44454</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44462</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44468</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>44470</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44474</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>44474</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>44475</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>44475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>44475</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>44476</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44480</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44480</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>44482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>44496</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>44496</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44511</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44511</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44519</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>44525</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>44565</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
         <v>44565</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>44571</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>44573</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>44582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>44593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>44594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>44594</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>44608</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>44608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>44608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44617</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44623</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44623</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>44629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>44651</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>44651</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>44655</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>44655</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44655</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>44655</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44671</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44678</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44680</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44685</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44685</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44692</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44725</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44744</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44744</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44752</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44752</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44762</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44771</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44776</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44791</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44798</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>44820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19291,7 +19291,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         <v>44830</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
         <v>44830</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44830</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>44830</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>44839</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19633,7 +19633,7 @@
         <v>44857</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>44859</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>44859</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19861,7 +19861,7 @@
         <v>44859</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>44859</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>44859</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>44859</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>44867</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>44880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44888</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44893</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44902</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44902</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44902</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44903</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44910</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44910</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44910</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>44918</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>44918</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44918</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44918</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>44918</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44918</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44918</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>44937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>44937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44938</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>44938</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>44938</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44942</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44943</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>44944</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44961</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44970</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>44979</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44990</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>44990</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>44993</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44999</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45021</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45025</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45036</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45041</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45043</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45043</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45051</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45051</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45051</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45053</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45056</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45070</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45072</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>45072</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45072</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45076</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45076</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45076</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45076</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45076</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45079</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45089</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45096</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45098</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45103</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45107</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45109</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45109</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45110</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45110</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45120</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45135</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45156</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45175</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45195</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45196</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24424,7 +24424,7 @@
       </c>
       <c r="R409" s="2" t="inlineStr"/>
     </row>
-    <row r="410">
+    <row r="410" ht="15" customHeight="1">
       <c r="A410" t="inlineStr">
         <is>
           <t>A 46052-2023</t>
@@ -24434,7 +24434,7 @@
         <v>45196</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24480,6 +24480,63 @@
         <v>0</v>
       </c>
       <c r="R410" s="2" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>A 48036-2023</t>
+        </is>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C411" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
